--- a/tmp/file.xlsx
+++ b/tmp/file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\getting-started-python-master\hw_7_python\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\getting-started-python-master\qa_quru_homowork_7\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8056544-51CB-4230-99DB-E9B764F6B84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C4B8E-FCED-44EE-BB75-114695153B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FCA1360-3F99-4965-AF27-8F7B6C1A42F4}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
